--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.10573052631686</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H2">
-        <v>1.10573052631686</v>
+        <v>15.769693</v>
       </c>
       <c r="I2">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J2">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N2">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O2">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P2">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q2">
-        <v>52.87911433800969</v>
+        <v>1373.961852529226</v>
       </c>
       <c r="R2">
-        <v>52.87911433800969</v>
+        <v>12365.65667276304</v>
       </c>
       <c r="S2">
-        <v>0.0003052890995502694</v>
+        <v>0.002611762591235657</v>
       </c>
       <c r="T2">
-        <v>0.0003052890995502694</v>
+        <v>0.002611762591235657</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.10573052631686</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H3">
-        <v>1.10573052631686</v>
+        <v>15.769693</v>
       </c>
       <c r="I3">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J3">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N3">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P3">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q3">
-        <v>35.2950630658699</v>
+        <v>168.207051911868</v>
       </c>
       <c r="R3">
-        <v>35.2950630658699</v>
+        <v>1513.863467206812</v>
       </c>
       <c r="S3">
-        <v>0.0002037703951142795</v>
+        <v>0.0003197446020475347</v>
       </c>
       <c r="T3">
-        <v>0.0002037703951142795</v>
+        <v>0.0003197446020475347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.10573052631686</v>
+        <v>5.256564333333333</v>
       </c>
       <c r="H4">
-        <v>1.10573052631686</v>
+        <v>15.769693</v>
       </c>
       <c r="I4">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="J4">
-        <v>0.0008020768709054698</v>
+        <v>0.003747859920520347</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N4">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O4">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P4">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q4">
-        <v>50.75352956948898</v>
+        <v>429.4561493437224</v>
       </c>
       <c r="R4">
-        <v>50.75352956948898</v>
+        <v>3865.105344093501</v>
       </c>
       <c r="S4">
-        <v>0.000293017376240921</v>
+        <v>0.0008163527272371549</v>
       </c>
       <c r="T4">
-        <v>0.000293017376240921</v>
+        <v>0.0008163527272371549</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1308.15334255235</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H5">
-        <v>1308.15334255235</v>
+        <v>3938.110352</v>
       </c>
       <c r="I5">
-        <v>0.9489107107804025</v>
+        <v>0.93593996730609</v>
       </c>
       <c r="J5">
-        <v>0.9489107107804025</v>
+        <v>0.9359399673060897</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N5">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O5">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P5">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q5">
-        <v>62559.53736114241</v>
+        <v>343114.6944140538</v>
       </c>
       <c r="R5">
-        <v>62559.53736114241</v>
+        <v>3088032.249726484</v>
       </c>
       <c r="S5">
-        <v>0.3611774718309978</v>
+        <v>0.6522263494610507</v>
       </c>
       <c r="T5">
-        <v>0.3611774718309978</v>
+        <v>0.6522263494610506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1308.15334255235</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H6">
-        <v>1308.15334255235</v>
+        <v>3938.110352</v>
       </c>
       <c r="I6">
-        <v>0.9489107107804025</v>
+        <v>0.93593996730609</v>
       </c>
       <c r="J6">
-        <v>0.9489107107804025</v>
+        <v>0.9359399673060897</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N6">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P6">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q6">
-        <v>41756.42584365331</v>
+        <v>42005.75955495955</v>
       </c>
       <c r="R6">
-        <v>41756.42584365331</v>
+        <v>378051.8359946359</v>
       </c>
       <c r="S6">
-        <v>0.2410740385090635</v>
+        <v>0.07984870265511933</v>
       </c>
       <c r="T6">
-        <v>0.2410740385090635</v>
+        <v>0.07984870265511933</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1308.15334255235</v>
+        <v>1312.703450666667</v>
       </c>
       <c r="H7">
-        <v>1308.15334255235</v>
+        <v>3938.110352</v>
       </c>
       <c r="I7">
-        <v>0.9489107107804025</v>
+        <v>0.93593996730609</v>
       </c>
       <c r="J7">
-        <v>0.9489107107804025</v>
+        <v>0.9359399673060897</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N7">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O7">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P7">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q7">
-        <v>60044.82807742502</v>
+        <v>107246.5841573816</v>
       </c>
       <c r="R7">
-        <v>60044.82807742502</v>
+        <v>965219.257416434</v>
       </c>
       <c r="S7">
-        <v>0.3466592004403412</v>
+        <v>0.2038649151899198</v>
       </c>
       <c r="T7">
-        <v>0.3466592004403412</v>
+        <v>0.2038649151899198</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>69.3251579671598</v>
+        <v>84.59089266666666</v>
       </c>
       <c r="H8">
-        <v>69.3251579671598</v>
+        <v>253.772678</v>
       </c>
       <c r="I8">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338979</v>
       </c>
       <c r="J8">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338978</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.8227860038808</v>
+        <v>261.380203</v>
       </c>
       <c r="N8">
-        <v>47.8227860038808</v>
+        <v>784.1406089999999</v>
       </c>
       <c r="O8">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="P8">
-        <v>0.3806232427642833</v>
+        <v>0.6968677182772199</v>
       </c>
       <c r="Q8">
-        <v>3315.322194148715</v>
+        <v>22110.38469716454</v>
       </c>
       <c r="R8">
-        <v>3315.322194148715</v>
+        <v>198993.4622744809</v>
       </c>
       <c r="S8">
-        <v>0.01914048183373527</v>
+        <v>0.04202960622493361</v>
       </c>
       <c r="T8">
-        <v>0.01914048183373527</v>
+        <v>0.0420296062249336</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>69.3251579671598</v>
+        <v>84.59089266666666</v>
       </c>
       <c r="H9">
-        <v>69.3251579671598</v>
+        <v>253.772678</v>
       </c>
       <c r="I9">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338979</v>
       </c>
       <c r="J9">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338978</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.9201308328135</v>
+        <v>31.999428</v>
       </c>
       <c r="N9">
-        <v>31.9201308328135</v>
+        <v>95.998284</v>
       </c>
       <c r="O9">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826334</v>
       </c>
       <c r="P9">
-        <v>0.2540534486230001</v>
+        <v>0.08531391482826335</v>
       </c>
       <c r="Q9">
-        <v>2212.868112317204</v>
+        <v>2706.860179342728</v>
       </c>
       <c r="R9">
-        <v>2212.868112317204</v>
+        <v>24361.74161408455</v>
       </c>
       <c r="S9">
-        <v>0.01277563971882233</v>
+        <v>0.00514546757109648</v>
       </c>
       <c r="T9">
-        <v>0.01277563971882233</v>
+        <v>0.00514546757109648</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>69.3251579671598</v>
+        <v>84.59089266666666</v>
       </c>
       <c r="H10">
-        <v>69.3251579671598</v>
+        <v>253.772678</v>
       </c>
       <c r="I10">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338979</v>
       </c>
       <c r="J10">
-        <v>0.05028721234869202</v>
+        <v>0.06031217277338978</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>45.9004507531747</v>
+        <v>81.69901900000001</v>
       </c>
       <c r="N10">
-        <v>45.9004507531747</v>
+        <v>245.097057</v>
       </c>
       <c r="O10">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945166</v>
       </c>
       <c r="P10">
-        <v>0.3653233086127166</v>
+        <v>0.2178183668945167</v>
       </c>
       <c r="Q10">
-        <v>3182.055999227675</v>
+        <v>6910.992947200961</v>
       </c>
       <c r="R10">
-        <v>3182.055999227675</v>
+        <v>62198.93652480865</v>
       </c>
       <c r="S10">
-        <v>0.01837109079613443</v>
+        <v>0.01313709897735969</v>
       </c>
       <c r="T10">
-        <v>0.01837109079613443</v>
+        <v>0.01313709897735969</v>
       </c>
     </row>
   </sheetData>
